--- a/biology/Botanique/Fritillaire_impériale/Fritillaire_impériale.xlsx
+++ b/biology/Botanique/Fritillaire_impériale/Fritillaire_impériale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fritillaire_imp%C3%A9riale</t>
+          <t>Fritillaire_impériale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fritillaria imperialis
 La fritillaire impériale (Fritillaria imperialis) encore appelée couronne impériale est une plante herbacée vivace de la famille des liliacées. Son nom vernaculaire ancien était « larmes de Marie », qui serait la forme christianisée de la plante originaire d'Iran où son nom en persan est Ashk-e Sivash, « Larme de Siyâvash ».
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fritillaire_imp%C3%A9riale</t>
+          <t>Fritillaire_impériale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'inflorescence est composée d'un verticille de fleurs en forme de clochettes disposées au sommet de la tige et tournées vers le bas, surmontée d'une  houppe de  bractées constituant la « couronne » (d'où le nom vernaculaire de la plante). La variété sauvage possède des fleurs orangées, alors que les couleurs des variétés cultivées varient du rouge écarlate au jaune. Elle possède une odeur particulière qui éloignerait souris, taupes et autres rongeurs. Dans l'hémisphère nord, la floraison a lieu aux mois d'avril et de mai. Le bulbe contient des alcaloïdes toxiques, notamment de l'impérialine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inflorescence est composée d'un verticille de fleurs en forme de clochettes disposées au sommet de la tige et tournées vers le bas, surmontée d'une  houppe de  bractées constituant la « couronne » (d'où le nom vernaculaire de la plante). La variété sauvage possède des fleurs orangées, alors que les couleurs des variétés cultivées varient du rouge écarlate au jaune. Elle possède une odeur particulière qui éloignerait souris, taupes et autres rongeurs. Dans l'hémisphère nord, la floraison a lieu aux mois d'avril et de mai. Le bulbe contient des alcaloïdes toxiques, notamment de l'impérialine.
 Au XVIIe siècle, cette fleur faisait l'objet de compétitions acharnées entre collectionneurs, tous cherchant à multiplier le nombre des fleurs ou celui des étages de clochettes. Chacun des six tépales porte à sa base, une petite tache. Il s'agit de nectaires sécrétant des gouttes de nectar.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fritillaire_imp%C3%A9riale</t>
+          <t>Fritillaire_impériale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Phytonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle fut découverte pour la première fois en France en 1572 par Noël Caperon, un pharmacien d'Orléans qui la récolte au bord du Loiret et l'adressa au botaniste français Charles de l'Écluse[2].
-Le phytonyme tâj-e xosrow (« couronne impériale ») est issu de bractées qui recouvrissent les fleurs. Elle est également connue sous le nom vernaculaire ašk-e maryam (« larmes de Marie »), inspiré de nectar que produit la plante lors de sa floraison. Les lors dans les provinces des Tchaharmahal-et-Bakhtiari et Kohguilouyeh-et-Bouyer-Ahmad, où se trouve un grand part de la distribution de la fritillaire impériale, l'appelle Gel-e Begeriv qui signifie « fleur pleureuse »[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle fut découverte pour la première fois en France en 1572 par Noël Caperon, un pharmacien d'Orléans qui la récolte au bord du Loiret et l'adressa au botaniste français Charles de l'Écluse.
+Le phytonyme tâj-e xosrow (« couronne impériale ») est issu de bractées qui recouvrissent les fleurs. Elle est également connue sous le nom vernaculaire ašk-e maryam (« larmes de Marie »), inspiré de nectar que produit la plante lors de sa floraison. Les lors dans les provinces des Tchaharmahal-et-Bakhtiari et Kohguilouyeh-et-Bouyer-Ahmad, où se trouve un grand part de la distribution de la fritillaire impériale, l'appelle Gel-e Begeriv qui signifie « fleur pleureuse ».
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fritillaire_imp%C3%A9riale</t>
+          <t>Fritillaire_impériale</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les habitats naturels de la fritillaire impériale se trouvent ès Turquie, Irak, Iran, Afghanistan et Pakistan[3]. Elle est notamment présente aux hauteurs des monts Zagros et ses alentours en Iran[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les habitats naturels de la fritillaire impériale se trouvent ès Turquie, Irak, Iran, Afghanistan et Pakistan. Elle est notamment présente aux hauteurs des monts Zagros et ses alentours en Iran.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fritillaire_imp%C3%A9riale</t>
+          <t>Fritillaire_impériale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les variétés sauvages de la fritillaire impériale en Iran sont menacées en raison de ramassages excessifs et changements d'utilisation des sols faute de loi sur la protection. Les changements environnementaux et les pesticides sont d'autres menaces pour elle[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les variétés sauvages de la fritillaire impériale en Iran sont menacées en raison de ramassages excessifs et changements d'utilisation des sols faute de loi sur la protection. Les changements environnementaux et les pesticides sont d'autres menaces pour elle.
 </t>
         </is>
       </c>
